--- a/study2/presentation_for_paper/study2a_gpt_prompt.xlsx
+++ b/study2/presentation_for_paper/study2a_gpt_prompt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/study/study2/presentation_for_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study2/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E86E45A1-150B-4A38-A74E-CDB9E7D3561B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6642736-80FB-4D99-9932-EAAF1F6DE75A}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{E86E45A1-150B-4A38-A74E-CDB9E7D3561B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0E53D94-3327-4D68-8C21-ECD4039ED2F2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{C437011E-7A4B-457C-A980-6E73C2AE5194}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Create personalized iPhone ads crafted for each of the 8 personality types below.</t>
   </si>
@@ -51,28 +51,68 @@
     <t>Personality Types:</t>
   </si>
   <si>
-    <t>1. Low Extraversion: Reserved, Quiet, Shy, Introverted, Passive, Withdrawn, Solitary</t>
-  </si>
-  <si>
-    <t>2. High Extraversion: Outgoing, Sociable, Talkative, Energetic, Enthusiastic, Assertive, Gregarious</t>
-  </si>
-  <si>
-    <t>3. Low Agreeableness: Critical, Argumentative, Suspicious, Competitive, Self-centered, Uncooperative, Hostile</t>
-  </si>
-  <si>
-    <t>4. High Agreeableness: Kind, Helpful, Trusting, Forgiving, Compassionate, Cooperative, Altruistic</t>
-  </si>
-  <si>
-    <t>5. Low Conscientiousness: Careless, Disorganized, Lazy, Impulsive, Irresponsible, Procrastinating, Unreliable</t>
-  </si>
-  <si>
-    <t>6. High Conscientiousness: Reliable, Organized, Hardworking, Efficient, Responsible, Disciplined, Perseverant</t>
-  </si>
-  <si>
-    <t>7. Low Openness: Traditional, Conventional, Routine-oriented, Close-minded, Practical, Conservative, Simple</t>
-  </si>
-  <si>
-    <t>8. High Openness: Creative, Imaginative, Curious, Original, Artistic, Open-minded, Intellectual</t>
+    <t>1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Low Extraversion: Reserved, Quiet, Shy, Introverted, Passive, Withdrawn, Solitary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>High Extraversion: Outgoing, Sociable, Talkative, Energetic, Enthusiastic, Assertive, Gregarious</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Low Agreeableness: Critical, Argumentative, Suspicious, Competitive, Self-centered, Uncooperative, Hostile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>High Agreeableness: Kind, Helpful, Trusting, Forgiving, Compassionate, Cooperative, Altruistic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Low Conscientiousness: Careless, Disorganized, Lazy, Impulsive, Irresponsible, Procrastinating, Unreliable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>High Conscientiousness: Reliable, Organized, Hardworking, Efficient, Responsible, Disciplined, Perseverant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Low Openness: Traditional, Conventional, Routine-oriented, Close-minded, Practical, Conservative, Simple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>High Openness: Creative, Imaginative, Curious, Original, Artistic, Open-minded, Intellectual</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -98,8 +138,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,12 +150,30 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -124,11 +182,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -153,22 +223,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C507F5E-0479-4458-B9BA-F8F4D310A076}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B9CF2D-27CE-89E2-8D9E-D7AEB98C6DE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -191,18 +261,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="82550" y="57150"/>
-          <a:ext cx="6610350" cy="2400300"/>
+          <a:off x="228600" y="82550"/>
+          <a:ext cx="6731000" cy="2616200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -536,80 +601,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390D2A0E-DF40-428C-92BE-0474F62DCFE5}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="B1:L17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M1" sqref="A1:M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.58203125" style="1" customWidth="1"/>
+    <col min="4" max="11" width="8.6640625" style="1"/>
+    <col min="12" max="12" width="12.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="1.25" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:12" ht="8" customHeight="1"/>
+    <row r="2" spans="2:12" ht="3.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="2:12">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="2:12">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="2:12">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="5.5" customHeight="1">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" ht="6.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C8:C15" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -618,7 +762,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
